--- a/trunk/StudyCases/HWS.xlsx
+++ b/trunk/StudyCases/HWS.xlsx
@@ -52,9 +52,6 @@
     <t>Data Formatting</t>
   </si>
   <si>
-    <t>Consitency</t>
-  </si>
-  <si>
     <t>Distribution</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Usability
-Modificability
-Availability
-Security</t>
   </si>
   <si>
     <t>Security
@@ -220,6 +211,15 @@
       </rPr>
       <t>Security</t>
     </r>
+  </si>
+  <si>
+    <t>Usability
+Modifiability
+Availability
+Security</t>
+  </si>
+  <si>
+    <t>Consistency</t>
   </si>
 </sst>
 </file>
@@ -507,6 +507,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC2DFFA"/>
+      <color rgb="FFD5EAFB"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -515,15 +521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1209261</xdr:colOff>
+      <xdr:colOff>1250156</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2071</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>173039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2071</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -531,9 +537,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2567609" y="1498256"/>
-          <a:ext cx="457614" cy="896"/>
+        <a:xfrm>
+          <a:off x="2613422" y="1488281"/>
+          <a:ext cx="418790" cy="6352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -562,15 +568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>877956</xdr:colOff>
+      <xdr:colOff>958453</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>171454</xdr:rowOff>
+      <xdr:rowOff>171455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -579,8 +585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2236304" y="2556845"/>
-          <a:ext cx="815423" cy="27329"/>
+          <a:off x="2321719" y="2552705"/>
+          <a:ext cx="736997" cy="1186"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -703,15 +709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>902804</xdr:colOff>
+      <xdr:colOff>916781</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>163513</xdr:rowOff>
+      <xdr:rowOff>163514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2071</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>372718</xdr:rowOff>
+      <xdr:rowOff>410766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -720,8 +726,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2261152" y="1786904"/>
-          <a:ext cx="764071" cy="209205"/>
+          <a:off x="2280047" y="1782764"/>
+          <a:ext cx="752165" cy="247252"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -752,11 +758,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>902804</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114303</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2071</xdr:colOff>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
@@ -767,39 +773,39 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2261152" y="2773020"/>
-          <a:ext cx="764071" cy="34784"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+          <a:off x="2266070" y="2792016"/>
+          <a:ext cx="775977" cy="6212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708422</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>207066</xdr:rowOff>
+      <xdr:rowOff>160734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -814,8 +820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3785152" y="1532283"/>
-          <a:ext cx="1971261" cy="91108"/>
+          <a:off x="3738563" y="1482328"/>
+          <a:ext cx="2022768" cy="136922"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -940,13 +946,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>654326</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>770282</xdr:colOff>
+      <xdr:colOff>791765</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:rowOff>124240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -955,8 +961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3677478" y="3081130"/>
-          <a:ext cx="2070652" cy="149087"/>
+          <a:off x="3684467" y="3042047"/>
+          <a:ext cx="2090064" cy="177818"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1102,20 +1108,26 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1155,21 +1167,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1335,13 +1351,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>935935</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>373892</xdr:rowOff>
+      <xdr:rowOff>391752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>21949</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>389283</xdr:rowOff>
+      <xdr:rowOff>407143</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1350,8 +1366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2294283" y="1997283"/>
-          <a:ext cx="750818" cy="15391"/>
+          <a:off x="2299201" y="2011002"/>
+          <a:ext cx="752889" cy="15391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1380,9 +1396,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>944217</xdr:colOff>
+      <xdr:colOff>916781</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>389283</xdr:rowOff>
+      <xdr:rowOff>404813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -1397,8 +1413,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2302565" y="2012674"/>
-          <a:ext cx="695739" cy="248478"/>
+          <a:off x="2280047" y="2024063"/>
+          <a:ext cx="723175" cy="232948"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1568,15 +1584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>877956</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1584,9 +1600,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2236304" y="2556845"/>
-          <a:ext cx="815423" cy="27329"/>
+        <a:xfrm>
+          <a:off x="2315766" y="5203031"/>
+          <a:ext cx="742950" cy="4767"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1897,9 +1913,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>687457</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>648890</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1914,8 +1930,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3710609" y="2559326"/>
-          <a:ext cx="2062369" cy="505239"/>
+          <a:off x="3679031" y="5197078"/>
+          <a:ext cx="2098865" cy="624043"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2108,20 +2124,26 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2161,21 +2183,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2247,11 +2273,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57980</xdr:rowOff>
+      <xdr:rowOff>125015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
+      <xdr:colOff>196454</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
@@ -2262,8 +2288,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6501848" y="4398067"/>
-          <a:ext cx="952500" cy="513520"/>
+          <a:off x="6506766" y="4446984"/>
+          <a:ext cx="946547" cy="446485"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2339,15 +2365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>935935</xdr:colOff>
+      <xdr:colOff>929982</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>373892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>21949</xdr:colOff>
+      <xdr:rowOff>367939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15996</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>389283</xdr:rowOff>
+      <xdr:rowOff>383330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2356,8 +2382,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2294283" y="1997283"/>
-          <a:ext cx="750818" cy="15391"/>
+          <a:off x="2293248" y="4689908"/>
+          <a:ext cx="752889" cy="15391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2386,9 +2412,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>944217</xdr:colOff>
+      <xdr:colOff>916781</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>389283</xdr:rowOff>
+      <xdr:rowOff>386953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -2403,8 +2429,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2302565" y="2012674"/>
-          <a:ext cx="695739" cy="248478"/>
+          <a:off x="2280047" y="4708922"/>
+          <a:ext cx="723175" cy="250808"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2527,7 +2553,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1217543</xdr:colOff>
+      <xdr:colOff>1262062</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>173039</xdr:rowOff>
     </xdr:from>
@@ -2535,7 +2561,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2071</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>231913</xdr:rowOff>
+      <xdr:rowOff>244078</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2544,8 +2570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2575891" y="7378909"/>
-          <a:ext cx="449332" cy="58874"/>
+          <a:off x="2625328" y="7221539"/>
+          <a:ext cx="406884" cy="71039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2832,20 +2858,26 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2885,21 +2917,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2969,15 +3005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:colOff>1464468</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>414130</xdr:rowOff>
+      <xdr:rowOff>392906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>256761</xdr:colOff>
+      <xdr:colOff>309563</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2986,8 +3022,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6501848" y="8100391"/>
-          <a:ext cx="1010478" cy="190500"/>
+          <a:off x="6447234" y="7917656"/>
+          <a:ext cx="1119188" cy="214313"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3022,7 +3058,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>828261</xdr:colOff>
+      <xdr:colOff>785812</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
@@ -3033,8 +3069,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3660913" y="7545457"/>
-          <a:ext cx="2145196" cy="2045804"/>
+          <a:off x="3667902" y="7388087"/>
+          <a:ext cx="2100676" cy="2041663"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3110,9 +3146,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1242391</xdr:colOff>
+      <xdr:colOff>1273968</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>256760</xdr:rowOff>
+      <xdr:rowOff>244078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -3127,8 +3163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2600739" y="7462630"/>
-          <a:ext cx="405848" cy="99392"/>
+          <a:off x="2637234" y="7292578"/>
+          <a:ext cx="374271" cy="112074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3204,15 +3240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>612913</xdr:colOff>
+      <xdr:colOff>648890</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>226219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>745435</xdr:colOff>
+      <xdr:colOff>803672</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>356152</xdr:rowOff>
+      <xdr:rowOff>375047</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3221,8 +3257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3636065" y="8522804"/>
-          <a:ext cx="2087218" cy="1043609"/>
+          <a:off x="3679031" y="8417719"/>
+          <a:ext cx="2107407" cy="1006078"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3257,9 +3293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>795130</xdr:colOff>
+      <xdr:colOff>791765</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>356152</xdr:rowOff>
+      <xdr:rowOff>375047</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3268,8 +3304,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="9094305"/>
-          <a:ext cx="2153478" cy="472108"/>
+          <a:off x="3626489" y="8927100"/>
+          <a:ext cx="2148042" cy="496697"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3347,11 +3383,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>331304</xdr:rowOff>
+      <xdr:rowOff>357188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>767953</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>397566</xdr:rowOff>
     </xdr:to>
@@ -3362,8 +3398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3644348" y="9541565"/>
-          <a:ext cx="2095500" cy="546653"/>
+          <a:off x="3651337" y="9405938"/>
+          <a:ext cx="2099382" cy="516628"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3398,9 +3434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>770282</xdr:colOff>
+      <xdr:colOff>696515</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:rowOff>136922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3409,8 +3445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685761" y="9367630"/>
-          <a:ext cx="2062369" cy="455543"/>
+          <a:off x="3692750" y="9206119"/>
+          <a:ext cx="1986531" cy="455803"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4102,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F34"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4117,7 +4153,7 @@
   <sheetData>
     <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="29.25" customHeight="1">
@@ -4142,10 +4178,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="60" customHeight="1">
@@ -4153,17 +4189,17 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="3:6" ht="13.5" customHeight="1">
       <c r="C9" s="13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="18"/>
@@ -4176,7 +4212,7 @@
     </row>
     <row r="11" spans="3:6" ht="18.75" customHeight="1">
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>5</v>
@@ -4194,13 +4230,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="3:6" ht="21.75" customHeight="1">
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
@@ -4211,7 +4247,7 @@
     <row r="14" spans="3:6" ht="22.5" customHeight="1"/>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="18.75">
@@ -4236,10 +4272,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="56.25">
@@ -4247,17 +4283,17 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="18"/>
@@ -4270,7 +4306,7 @@
     </row>
     <row r="21" spans="3:6" ht="18.75">
       <c r="C21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>5</v>
@@ -4288,13 +4324,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="3:6" ht="37.5">
+    <row r="23" spans="3:6" ht="27" customHeight="1">
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>9</v>
@@ -4304,7 +4340,7 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="18.75">
@@ -4326,13 +4362,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="37.5">
@@ -4340,17 +4376,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="18"/>
@@ -4363,10 +4399,10 @@
     </row>
     <row r="32" spans="3:6" ht="42" customHeight="1">
       <c r="C32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
@@ -4378,19 +4414,19 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="3:6" ht="37.5">
       <c r="C34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="12"/>

--- a/trunk/StudyCases/HWS.xlsx
+++ b/trunk/StudyCases/HWS.xlsx
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Usability</t>
-  </si>
-  <si>
-    <t>QA incorrectos</t>
   </si>
   <si>
     <t xml:space="preserve">Security
@@ -220,6 +217,10 @@
   </si>
   <si>
     <t>Consistency</t>
+  </si>
+  <si>
+    <t>QA detectados 
+incorrectamente</t>
   </si>
 </sst>
 </file>
@@ -4138,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4153,7 +4154,7 @@
   <sheetData>
     <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="29.25" customHeight="1">
@@ -4172,16 +4173,16 @@
     </row>
     <row r="7" spans="3:6" ht="23.25" customHeight="1">
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="60" customHeight="1">
@@ -4189,17 +4190,17 @@
         <v>4</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="18"/>
     </row>
     <row r="9" spans="3:6" ht="13.5" customHeight="1">
       <c r="C9" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="18"/>
@@ -4210,15 +4211,15 @@
       <c r="E10" s="20"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="3:6" ht="18.75" customHeight="1">
+    <row r="11" spans="3:6" ht="30" customHeight="1">
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -4230,16 +4231,16 @@
         <v>6</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="3:6" ht="21.75" customHeight="1">
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="12"/>
@@ -4247,7 +4248,7 @@
     <row r="14" spans="3:6" ht="22.5" customHeight="1"/>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="18.75">
@@ -4266,16 +4267,16 @@
     </row>
     <row r="17" spans="3:6" ht="18.75">
       <c r="C17" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="56.25">
@@ -4283,17 +4284,17 @@
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="18"/>
@@ -4304,15 +4305,15 @@
       <c r="E20" s="20"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="3:6" ht="18.75">
+    <row r="21" spans="3:6" ht="30">
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F21" s="18"/>
     </row>
@@ -4324,23 +4325,23 @@
         <v>6</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="3:6" ht="27" customHeight="1">
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="12"/>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="18.75">
@@ -4359,16 +4360,16 @@
     </row>
     <row r="28" spans="3:6" ht="37.5">
       <c r="C28" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="37.5">
@@ -4376,17 +4377,17 @@
         <v>4</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="18"/>
@@ -4399,13 +4400,13 @@
     </row>
     <row r="32" spans="3:6" ht="42" customHeight="1">
       <c r="C32" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18"/>
     </row>
@@ -4414,19 +4415,19 @@
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="3:6" ht="37.5">
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="12"/>
